--- a/RUDN/Correlations/deep.Corr_in_LIE.Western Europe.xlsx
+++ b/RUDN/Correlations/deep.Corr_in_LIE.Western Europe.xlsx
@@ -13,10 +13,77 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>IT.CEL.SETS.P2:LIE</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:LIE</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:LIE</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:LIE</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:LIE</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:LIE</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:LIE:cor-value</t>
+  </si>
+  <si>
+    <t>IT.MLT.MAIN.P2:LIE:p-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:LIE:cor-value</t>
+  </si>
+  <si>
+    <t>IT.NET.USER.P2:LIE:p-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:LIE:cor-value</t>
+  </si>
+  <si>
+    <t>SG.GEN.PARL.ZS:LIE:p-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:LIE:cor-value</t>
+  </si>
+  <si>
+    <t>SP.POP.TOTL:LIE:p-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:LIE:cor-value</t>
+  </si>
+  <si>
+    <t>SP.RUR.TOTL:LIE:p-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:LIE:cor-value</t>
+  </si>
+  <si>
+    <t>SP.URB.TOTL:LIE:p-value</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +107,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +425,219 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>-0.9124778156941027</v>
+      </c>
+      <c r="D2">
+        <v>-0.9440610758751974</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>5.361934690974171e-06</v>
+      </c>
+      <c r="D3">
+        <v>3.91867107818568e-07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0.9281316918743813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1.70166428896518e-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.3673964864245902</v>
+      </c>
+      <c r="C6">
+        <v>-0.110966381142038</v>
+      </c>
+      <c r="D6">
+        <v>0.1629344763150769</v>
+      </c>
+      <c r="F6">
+        <v>0.259638478163536</v>
+      </c>
+      <c r="G6">
+        <v>0.1791428937464186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.1962619069242975</v>
+      </c>
+      <c r="C7">
+        <v>0.7056850054987932</v>
+      </c>
+      <c r="D7">
+        <v>0.5778367970409857</v>
+      </c>
+      <c r="F7">
+        <v>0.370029736600021</v>
+      </c>
+      <c r="G7">
+        <v>0.5400165598975177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.9689759135900431</v>
+      </c>
+      <c r="C8">
+        <v>-0.9720388250918793</v>
+      </c>
+      <c r="D8">
+        <v>0.9808984567071966</v>
+      </c>
+      <c r="E8">
+        <v>0.2533683558565097</v>
+      </c>
+      <c r="F8">
+        <v>0.9999216904422149</v>
+      </c>
+      <c r="G8">
+        <v>0.9897901683085839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>1.204028696122471e-08</v>
+      </c>
+      <c r="C9">
+        <v>6.496196113023744e-09</v>
+      </c>
+      <c r="D9">
+        <v>6.730684946563117e-10</v>
+      </c>
+      <c r="E9">
+        <v>0.3821072968163085</v>
+      </c>
+      <c r="F9">
+        <v>3.328953645971784e-24</v>
+      </c>
+      <c r="G9">
+        <v>1.599863050636106e-11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.9700462451543288</v>
+      </c>
+      <c r="C10">
+        <v>-0.9694590740747172</v>
+      </c>
+      <c r="D10">
+        <v>0.9817306939862932</v>
+      </c>
+      <c r="G10">
+        <v>0.9879289377404633</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>9.775941519869321e-09</v>
+      </c>
+      <c r="C11">
+        <v>1.09696094728465e-08</v>
+      </c>
+      <c r="D11">
+        <v>5.161323129250377e-10</v>
+      </c>
+      <c r="G11">
+        <v>4.35215668501791e-11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12">
+        <v>0.946028223712011</v>
+      </c>
+      <c r="C12">
+        <v>-0.9906292103237435</v>
+      </c>
+      <c r="D12">
+        <v>0.9605301458546136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13">
+        <v>3.174865896649551e-07</v>
+      </c>
+      <c r="C13">
+        <v>9.581032331929928e-12</v>
+      </c>
+      <c r="D13">
+        <v>5.012632987627068e-08</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>